--- a/config_aomi/fish_3d_server.xlsx
+++ b/config_aomi/fish_3d_server.xlsx
@@ -703,7 +703,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B10" sqref="B10:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -962,7 +962,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>55</v>
@@ -988,7 +988,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>59</v>
@@ -1014,7 +1014,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>56</v>
@@ -1040,7 +1040,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>57</v>
@@ -1066,7 +1066,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>58</v>
@@ -1193,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1427,10 +1427,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C10" s="1">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>20</v>
@@ -1453,10 +1453,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="C11" s="1">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>28</v>
@@ -1476,10 +1476,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="C12" s="1">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>29</v>
@@ -1499,10 +1499,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="C13" s="1">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>30</v>
@@ -1522,10 +1522,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="C14" s="1">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>31</v>
